--- a/data/BatchRequests.xlsx
+++ b/data/BatchRequests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manesha/Desktop/University/Capstone/JSCleaner-machineLearningModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEE6D49-0A21-9444-A2FD-6E1493493495}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88510DE-6429-6244-99B1-8839E9723160}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="940" windowWidth="25640" windowHeight="13140" activeTab="3" xr2:uid="{714557B7-FDEE-2E43-9550-8711C251D1AB}"/>
+    <workbookView xWindow="2180" yWindow="940" windowWidth="25640" windowHeight="15600" activeTab="3" xr2:uid="{714557B7-FDEE-2E43-9550-8711C251D1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>url</t>
   </si>
@@ -297,37 +297,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -360,9 +330,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Page Loads'!$B$4:$E$5</c:f>
+              <c:f>'Page Loads'!$B$4:$F$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FPL</c:v>
@@ -384,16 +354,19 @@
                   <c:pt idx="2">
                     <c:v>Single Requests</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Base Case</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Loads'!$B$6:$E$6</c:f>
+              <c:f>'Page Loads'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.2945714285714289</c:v>
                 </c:pt>
@@ -406,12 +379,15 @@
                 <c:pt idx="3">
                   <c:v>1.5599183673469386</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1639795918367342</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22D6-864C-9D55-8DBE0E92A380}"/>
+              <c16:uniqueId val="{00000000-E0D7-914E-BB3D-26273ED0DAD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -441,9 +417,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Page Loads'!$B$4:$E$5</c:f>
+              <c:f>'Page Loads'!$B$4:$F$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FPL</c:v>
@@ -465,16 +441,19 @@
                   <c:pt idx="2">
                     <c:v>Single Requests</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Base Case</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Loads'!$B$7:$E$7</c:f>
+              <c:f>'Page Loads'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.3052653061224468</c:v>
                 </c:pt>
@@ -487,12 +466,15 @@
                 <c:pt idx="3">
                   <c:v>3.9678571428571425</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7156122448979589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22D6-864C-9D55-8DBE0E92A380}"/>
+              <c16:uniqueId val="{00000001-E0D7-914E-BB3D-26273ED0DAD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -522,9 +504,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Page Loads'!$B$4:$E$5</c:f>
+              <c:f>'Page Loads'!$B$4:$F$5</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FPL</c:v>
@@ -546,16 +528,19 @@
                   <c:pt idx="2">
                     <c:v>Single Requests</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Base Case</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Page Loads'!$B$8:$E$8</c:f>
+              <c:f>'Page Loads'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>8.3256530612244877</c:v>
                 </c:pt>
@@ -568,12 +553,15 @@
                 <c:pt idx="3">
                   <c:v>3.9796530612244907</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7283265306122448</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22D6-864C-9D55-8DBE0E92A380}"/>
+              <c16:uniqueId val="{00000002-E0D7-914E-BB3D-26273ED0DAD3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -587,11 +575,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="752692144"/>
-        <c:axId val="752303344"/>
+        <c:axId val="1268635023"/>
+        <c:axId val="1271890799"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="752692144"/>
+        <c:axId val="1268635023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752303344"/>
+        <c:crossAx val="1271890799"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -642,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="752303344"/>
+        <c:axId val="1271890799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,6 +650,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tim</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>e (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -693,7 +741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752692144"/>
+        <c:crossAx val="1268635023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3036,23 +3084,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>315057</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>775839</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>138235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B23231-5BE5-E849-8ABE-B2B93D03B5F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CCCC8CD-D586-5948-A5BC-EF3AA43729A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3078,15 +3126,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>688081</xdr:colOff>
+      <xdr:colOff>176092</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190130</xdr:rowOff>
+      <xdr:rowOff>37198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>307081</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>88530</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619595</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>141724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3118,16 +3166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>332482</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>101742</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>475179</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>766280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>48088</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81336</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3454,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24D84A3-CB36-5F41-973F-F017B5055B70}">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:H55"/>
+    <sheetView topLeftCell="A20" zoomScale="89" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9205,15 +9253,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B00480-22D7-E847-878B-A294C82FC44F}">
-  <dimension ref="A4:E8"/>
+  <dimension ref="A4:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
@@ -9221,8 +9269,11 @@
       <c r="D4" t="s">
         <v>62</v>
       </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -9236,7 +9287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -9252,8 +9303,11 @@
       <c r="E6">
         <v>1.5599183673469386</v>
       </c>
+      <c r="F6">
+        <v>2.1639795918367342</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -9269,8 +9323,11 @@
       <c r="E7">
         <v>3.9678571428571425</v>
       </c>
+      <c r="F7">
+        <v>7.7156122448979589</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -9285,6 +9342,9 @@
       </c>
       <c r="E8">
         <v>3.9796530612244907</v>
+      </c>
+      <c r="F8">
+        <v>7.7283265306122448</v>
       </c>
     </row>
   </sheetData>
@@ -9300,8 +9360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DDC046-32D9-0843-A90A-C27327E48C3F}">
   <dimension ref="A3:F12"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="G3" zoomScale="191" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9427,8 +9487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A20DD3-A364-7E4A-AE35-73FC8D75C7A7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="178" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+    <sheetView tabSelected="1" topLeftCell="J3" zoomScale="143" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
